--- a/config_hlw/platform_channel_config_server.xlsx
+++ b/config_hlw/platform_channel_config_server.xlsx
@@ -19,16 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>id|行号</t>
   </si>
   <si>
     <t>yueka_award_server_gswzq</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>yueka_award_server</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -106,7 +102,22 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>sign_in_config_server</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>drt_hlw_plat_server_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yueka_award_server</t>
+  </si>
+  <si>
+    <t>yueka_award_server</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yueka_award_server_hlw</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +509,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -522,13 +533,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -539,13 +550,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -558,10 +569,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>1</v>
@@ -577,13 +588,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -596,13 +607,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -615,13 +626,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -630,10 +641,18 @@
       <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -912,12 +931,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -927,7 +940,48 @@
 </settings>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="7" master=""/>
+  <rangeList sheetStid="8" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="12" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="8" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="9" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="11" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="12" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="13" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="2"/>
   <pixelatorList sheetStid="5"/>
@@ -943,73 +997,38 @@
 </pixelators>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="8" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="9" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="11" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="12" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="13" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="7" master=""/>
-  <rangeList sheetStid="8" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="12" master=""/>
-</allowEditUser>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>